--- a/public/doc/Template Kelas.xlsx
+++ b/public/doc/Template Kelas.xlsx
@@ -100,67 +100,67 @@
     <t xml:space="preserve">Diding Suyana, S.Pd</t>
   </si>
   <si>
-    <t xml:space="preserve">XI 1</t>
+    <t xml:space="preserve">XI GBIM 1</t>
   </si>
   <si>
     <t xml:space="preserve">Deden Sugianto, S.Pd.I</t>
   </si>
   <si>
-    <t xml:space="preserve">XI 2</t>
+    <t xml:space="preserve">XI GBIM 2</t>
   </si>
   <si>
     <t xml:space="preserve">Nuni Nuraeni, S.Pd.I</t>
   </si>
   <si>
-    <t xml:space="preserve">XI 3</t>
+    <t xml:space="preserve">XI GBIM 3</t>
   </si>
   <si>
     <t xml:space="preserve">Revi Indikas, S.Pd</t>
   </si>
   <si>
-    <t xml:space="preserve">XI 4</t>
+    <t xml:space="preserve">XI GBIM 4</t>
   </si>
   <si>
     <t xml:space="preserve">Fuji Novianti, S.Pd</t>
   </si>
   <si>
-    <t xml:space="preserve">XI 5</t>
+    <t xml:space="preserve">XI GBIM 5</t>
   </si>
   <si>
     <t xml:space="preserve">Tuti Ella Maryati, S.Pd</t>
   </si>
   <si>
-    <t xml:space="preserve">XI 6</t>
+    <t xml:space="preserve">XI EBIM 1</t>
   </si>
   <si>
     <t xml:space="preserve">Kartika Andriyani, S.Pd</t>
   </si>
   <si>
-    <t xml:space="preserve">XI 7</t>
+    <t xml:space="preserve">XI EBIM 2</t>
   </si>
   <si>
     <t xml:space="preserve">Mela Herna Melani, S.Pd</t>
   </si>
   <si>
-    <t xml:space="preserve">XI 8</t>
+    <t xml:space="preserve">XI EBIM 3</t>
   </si>
   <si>
     <t xml:space="preserve">Aam Amarulloh, S.Pd</t>
   </si>
   <si>
-    <t xml:space="preserve">XI 9</t>
+    <t xml:space="preserve">XI SBIM 1</t>
   </si>
   <si>
     <t xml:space="preserve">Virda Ayu Purwanti, S.Pd</t>
   </si>
   <si>
-    <t xml:space="preserve">XI 10</t>
+    <t xml:space="preserve">XI SBIM 2</t>
   </si>
   <si>
     <t xml:space="preserve">Iing Solihin, S.Pd</t>
   </si>
   <si>
-    <t xml:space="preserve">XI 11</t>
+    <t xml:space="preserve">XI SBIM 3</t>
   </si>
   <si>
     <t xml:space="preserve">Leli Septiani, S.Pd</t>
@@ -516,8 +516,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
